--- a/SPPSApi/Doc/Template/FS0801.xlsx
+++ b/SPPSApi/Doc/Template/FS0801.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8985" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="包装场">Sheet2!$C$2:$C$3</definedName>
+    <definedName name="包装区分">Sheet2!$A$2:$A$3</definedName>
+    <definedName name="入荷区分">Sheet2!$B$2:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,31 +35,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小品目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入荷区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大品目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入荷区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已包装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未包装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可入荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可入荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>包装厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小品目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入荷区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大品目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准时间</t>
+    <t>包装场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,18 +131,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,7 +153,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,41 +474,97 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>包装区分</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>入荷区分</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>包装场</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
